--- a/MOSES LEMAYIAN.xlsx
+++ b/MOSES LEMAYIAN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="480" yWindow="120" windowWidth="18195" windowHeight="11760" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="11760" firstSheet="16" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="AUGUST 20" sheetId="1" r:id="rId1"/>
@@ -17365,8 +17365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17993,10 +17993,12 @@
         <f t="shared" si="2"/>
         <v>14000</v>
       </c>
-      <c r="Q15" s="16"/>
+      <c r="Q15" s="16">
+        <v>14000</v>
+      </c>
       <c r="R15" s="17">
         <f t="shared" si="3"/>
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="S15" s="15"/>
     </row>
@@ -18895,11 +18897,11 @@
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="6"/>
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="R36" s="16">
         <f t="shared" si="6"/>
-        <v>62000</v>
+        <v>48000</v>
       </c>
       <c r="S36" s="15">
         <f t="shared" si="6"/>
@@ -19067,7 +19069,7 @@
       </c>
       <c r="P42" s="40">
         <f>Q36</f>
-        <v>12000</v>
+        <v>26000</v>
       </c>
       <c r="Q42" s="28"/>
       <c r="R42" s="28"/>
@@ -19341,7 +19343,7 @@
       </c>
       <c r="P55" s="46">
         <f>P42+P43+P45-Q46</f>
-        <v>-10342</v>
+        <v>3658</v>
       </c>
       <c r="Q55" s="46">
         <f>SUM(Q48:Q54)</f>
@@ -19349,7 +19351,7 @@
       </c>
       <c r="R55" s="46">
         <f>P55-Q55</f>
-        <v>-16342</v>
+        <v>-2342</v>
       </c>
       <c r="S55" s="45"/>
     </row>

--- a/MOSES LEMAYIAN.xlsx
+++ b/MOSES LEMAYIAN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="11760" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="11760" firstSheet="15" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="AUGUST 20" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="251">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -775,6 +775,24 @@
   <si>
     <t>FOR THE MONTH OF DECEMBER 21 2021</t>
   </si>
+  <si>
+    <t>PAID ON 6/12</t>
+  </si>
+  <si>
+    <t>FOR THE MONTH OF DECEMBER 2021</t>
+  </si>
+  <si>
+    <t>ZAKARIA MUKOYA</t>
+  </si>
+  <si>
+    <t>MZEE</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>PAID ON 14/12</t>
+  </si>
 </sst>
 </file>
 
@@ -1150,21 +1168,105 @@
       <sheetName val="DECEMBER 21"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="0">
+        <row r="25">
+          <cell r="E25">
+            <v>3300</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="28">
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="28">
+          <cell r="E28">
+            <v>36300</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="28">
+          <cell r="E28">
+            <v>40300</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="28">
+          <cell r="E28">
+            <v>20500</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="28">
+          <cell r="E28">
+            <v>15500</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6">
+        <row r="28">
+          <cell r="E28">
+            <v>21500</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="28">
+          <cell r="E28">
+            <v>23500</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="8">
+        <row r="28">
+          <cell r="E28">
+            <v>21500</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="9">
+        <row r="28">
+          <cell r="E28">
+            <v>20000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="10">
+        <row r="28">
+          <cell r="E28">
+            <v>29000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="11">
+        <row r="28">
+          <cell r="E28">
+            <v>32000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="12">
+        <row r="28">
+          <cell r="E28">
+            <v>38000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13">
+        <row r="28">
+          <cell r="E28">
+            <v>39000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -15267,8 +15369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="F25" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16095,10 +16197,12 @@
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="16">
+        <v>2000</v>
+      </c>
       <c r="H19" s="17">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="I19" s="15"/>
       <c r="K19" s="23" t="s">
@@ -16288,12 +16392,12 @@
         <v>42200</v>
       </c>
       <c r="G23" s="16">
-        <f>SUM(G20:G22)</f>
-        <v>9800</v>
+        <f>SUM(G6:G22)</f>
+        <v>33100</v>
       </c>
       <c r="H23" s="16">
         <f>SUM(H6:H22)</f>
-        <v>11100</v>
+        <v>9100</v>
       </c>
       <c r="I23" s="15">
         <f>SUM(I6:I22)</f>
@@ -16518,7 +16622,7 @@
       </c>
       <c r="F29" s="40">
         <f>G23</f>
-        <v>9800</v>
+        <v>33100</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -16900,13 +17004,21 @@
       <c r="J38" s="30"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
+      <c r="A39" s="42" t="s">
+        <v>224</v>
+      </c>
       <c r="B39" s="28"/>
-      <c r="C39" s="44"/>
+      <c r="C39" s="44">
+        <v>2000</v>
+      </c>
       <c r="D39" s="28"/>
-      <c r="E39" s="42"/>
+      <c r="E39" s="42" t="s">
+        <v>224</v>
+      </c>
       <c r="F39" s="28"/>
-      <c r="G39" s="44"/>
+      <c r="G39" s="44">
+        <v>2000</v>
+      </c>
       <c r="H39" s="28"/>
       <c r="I39" s="3"/>
       <c r="J39" s="30"/>
@@ -16951,26 +17063,26 @@
       </c>
       <c r="C41" s="46">
         <f>SUM(C35:C40)</f>
-        <v>30600</v>
+        <v>32600</v>
       </c>
       <c r="D41" s="46">
         <f>B41-C41</f>
-        <v>84</v>
+        <v>-1916</v>
       </c>
       <c r="E41" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="46">
         <f>F29+F30+F32-G33</f>
-        <v>-1516</v>
+        <v>21784</v>
       </c>
       <c r="G41" s="46">
         <f>SUM(G35:G40)</f>
-        <v>30600</v>
+        <v>32600</v>
       </c>
       <c r="H41" s="46">
         <f>F41-G41</f>
-        <v>-32116</v>
+        <v>-10816</v>
       </c>
       <c r="I41" s="45"/>
       <c r="J41" s="30"/>
@@ -17365,13 +17477,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17436,7 +17548,7 @@
       <c r="I4" s="3"/>
       <c r="K4" s="5"/>
       <c r="L4" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -17543,16 +17655,18 @@
         <f>M6+N6+O6</f>
         <v>11000</v>
       </c>
-      <c r="Q6" s="16"/>
+      <c r="Q6" s="16">
+        <v>10000</v>
+      </c>
       <c r="R6" s="17">
         <f>P6-Q6</f>
-        <v>11000</v>
+        <v>1000</v>
       </c>
       <c r="S6" s="15"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="B7" s="13">
         <v>2</v>
@@ -17563,16 +17677,18 @@
         <v>0</v>
       </c>
       <c r="E7" s="19">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="F7" s="16">
         <f t="shared" ref="F7:F22" si="0">C7+D7+E7</f>
-        <v>1500</v>
-      </c>
-      <c r="G7" s="16"/>
+        <v>2000</v>
+      </c>
+      <c r="G7" s="16">
+        <v>2000</v>
+      </c>
       <c r="H7" s="17">
         <f t="shared" ref="H7:H19" si="1">F7-G7</f>
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="I7" s="15"/>
       <c r="K7" t="s">
@@ -17593,10 +17709,12 @@
         <f t="shared" ref="P7:P35" si="2">M7+N7+O7</f>
         <v>4000</v>
       </c>
-      <c r="Q7" s="16"/>
+      <c r="Q7" s="16">
+        <v>4000</v>
+      </c>
       <c r="R7" s="17">
         <f t="shared" ref="R7:R35" si="3">P7-Q7</f>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="S7" s="15"/>
     </row>
@@ -17619,10 +17737,12 @@
         <f t="shared" si="0"/>
         <v>3800</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16">
+        <v>3800</v>
+      </c>
       <c r="H8" s="17">
         <f t="shared" si="1"/>
-        <v>3800</v>
+        <v>0</v>
       </c>
       <c r="I8" s="15"/>
       <c r="K8" s="20" t="s">
@@ -17734,17 +17854,15 @@
         <f>'NOVEMBER 21'!R10:R39</f>
         <v>3500</v>
       </c>
-      <c r="O10" s="16">
-        <v>3500</v>
-      </c>
+      <c r="O10" s="16"/>
       <c r="P10" s="16">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="17">
         <f t="shared" si="3"/>
-        <v>7000</v>
+        <v>3500</v>
       </c>
       <c r="S10" s="15"/>
     </row>
@@ -17821,10 +17939,12 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G12" s="16"/>
+      <c r="G12" s="16">
+        <v>2000</v>
+      </c>
       <c r="H12" s="17">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I12" s="15"/>
       <c r="K12" s="21"/>
@@ -17867,10 +17987,12 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G13" s="16"/>
+      <c r="G13" s="16">
+        <v>2000</v>
+      </c>
       <c r="H13" s="17">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="15"/>
       <c r="K13" s="50" t="s">
@@ -17919,10 +18041,12 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="16">
+        <v>2500</v>
+      </c>
       <c r="H14" s="17">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="I14" s="15"/>
       <c r="K14" s="50" t="s">
@@ -17943,10 +18067,12 @@
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="Q14" s="16"/>
+      <c r="Q14" s="16">
+        <v>3500</v>
+      </c>
       <c r="R14" s="17">
         <f t="shared" si="3"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="S14" s="15"/>
     </row>
@@ -17969,10 +18095,12 @@
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="16">
+        <v>2000</v>
+      </c>
       <c r="H15" s="17">
         <f t="shared" si="1"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="I15" s="15"/>
       <c r="K15" s="22" t="s">
@@ -18004,7 +18132,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="B16" s="13">
         <v>11</v>
@@ -18054,7 +18182,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="52" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="B17" s="13">
         <v>12</v>
@@ -18072,12 +18200,12 @@
         <v>5000</v>
       </c>
       <c r="G17" s="16">
-        <f>500+1000</f>
-        <v>1500</v>
+        <f>500+1000+2000</f>
+        <v>3500</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="I17" s="15"/>
       <c r="K17" s="23"/>
@@ -18144,10 +18272,12 @@
         <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="Q18" s="16"/>
+      <c r="Q18" s="16">
+        <v>5000</v>
+      </c>
       <c r="R18" s="17">
         <f t="shared" si="3"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="S18" s="15"/>
     </row>
@@ -18161,19 +18291,19 @@
       <c r="C19" s="14"/>
       <c r="D19" s="15">
         <f>'NOVEMBER 21'!H19:H35</f>
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="19">
         <v>2000</v>
       </c>
       <c r="F19" s="16">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="17">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="I19" s="15"/>
       <c r="K19" s="23" t="s">
@@ -18220,10 +18350,13 @@
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="16">
+        <f>1000+1000</f>
+        <v>2000</v>
+      </c>
       <c r="H20" s="17">
         <f>F20-G20</f>
-        <v>4500</v>
+        <v>2500</v>
       </c>
       <c r="I20" s="15"/>
       <c r="K20" s="23"/>
@@ -18346,23 +18479,23 @@
       <c r="C23" s="14"/>
       <c r="D23" s="15">
         <f t="shared" ref="D23:I23" si="5">SUM(D6:D22)</f>
-        <v>11100</v>
+        <v>9100</v>
       </c>
       <c r="E23" s="29">
         <f t="shared" si="5"/>
-        <v>36100</v>
+        <v>36600</v>
       </c>
       <c r="F23" s="16">
         <f t="shared" si="5"/>
-        <v>47200</v>
+        <v>45700</v>
       </c>
       <c r="G23" s="16">
-        <f t="shared" si="5"/>
-        <v>8000</v>
+        <f>SUM(G6:G22)</f>
+        <v>26300</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" si="5"/>
-        <v>39200</v>
+        <v>19400</v>
       </c>
       <c r="I23" s="15">
         <f t="shared" si="5"/>
@@ -18422,7 +18555,7 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="H25" s="30">
         <f>H14+H8+H20+H22</f>
-        <v>15200</v>
+        <v>6900</v>
       </c>
       <c r="K25" s="23" t="s">
         <v>45</v>
@@ -18516,10 +18649,12 @@
         <f t="shared" si="4"/>
         <v>3500</v>
       </c>
-      <c r="Q27" s="16"/>
+      <c r="Q27" s="16">
+        <v>3500</v>
+      </c>
       <c r="R27" s="17">
         <f t="shared" si="3"/>
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="S27" s="15"/>
     </row>
@@ -18570,20 +18705,20 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B29" s="40">
         <f>E23</f>
-        <v>36100</v>
+        <v>36600</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="28"/>
       <c r="E29" s="28" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="F29" s="40">
         <f>G23</f>
-        <v>8000</v>
+        <v>26300</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -18614,8 +18749,8 @@
         <v>18</v>
       </c>
       <c r="B30" s="40">
-        <f>'NOVEMBER 21'!D41</f>
-        <v>84</v>
+        <f>-2000</f>
+        <v>-2000</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="28"/>
@@ -18624,13 +18759,13 @@
       </c>
       <c r="F30" s="40">
         <f>'NOVEMBER 21'!H41</f>
-        <v>-32116</v>
+        <v>-10816</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="36">
         <f>B29+B32</f>
-        <v>36100</v>
+        <v>36600</v>
       </c>
       <c r="K30" s="18"/>
       <c r="L30" s="13">
@@ -18666,7 +18801,7 @@
       <c r="H31" s="28"/>
       <c r="I31" s="36">
         <f>C33</f>
-        <v>3610</v>
+        <v>3660</v>
       </c>
       <c r="J31" s="51"/>
       <c r="K31" s="22"/>
@@ -18703,7 +18838,7 @@
       <c r="H32" s="28"/>
       <c r="I32" s="45">
         <f>I30-I31</f>
-        <v>32490</v>
+        <v>32940</v>
       </c>
       <c r="J32" s="51"/>
       <c r="K32" s="12"/>
@@ -18736,7 +18871,7 @@
       </c>
       <c r="C33" s="40">
         <f>B33*B29</f>
-        <v>3610</v>
+        <v>3660</v>
       </c>
       <c r="D33" s="28"/>
       <c r="E33" s="28" t="s">
@@ -18747,12 +18882,12 @@
       </c>
       <c r="G33" s="40">
         <f>F33*B29</f>
-        <v>3610</v>
+        <v>3660</v>
       </c>
       <c r="H33" s="28"/>
       <c r="I33" s="45">
-        <f>C37</f>
-        <v>0</v>
+        <f>G36</f>
+        <v>15097</v>
       </c>
       <c r="J33" s="51"/>
       <c r="K33" s="22"/>
@@ -18793,7 +18928,7 @@
       <c r="H34" s="28"/>
       <c r="I34" s="36">
         <f>I32-I33</f>
-        <v>32490</v>
+        <v>17843</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>45</v>
@@ -18836,7 +18971,7 @@
       <c r="G35" s="44"/>
       <c r="H35" s="28"/>
       <c r="I35" s="36">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="J35" s="51"/>
       <c r="K35" s="22" t="s">
@@ -18867,13 +19002,23 @@
       <c r="S35" s="15"/>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36">
+        <v>15097</v>
+      </c>
       <c r="D36" s="44"/>
-      <c r="E36" s="42"/>
+      <c r="E36" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36">
+        <v>15097</v>
+      </c>
       <c r="H36" s="28"/>
       <c r="I36" s="36">
         <f>I34-I35</f>
-        <v>29490</v>
+        <v>15843</v>
       </c>
       <c r="K36" s="27" t="s">
         <v>24</v>
@@ -18889,19 +19034,19 @@
       </c>
       <c r="O36" s="29">
         <f t="shared" si="6"/>
-        <v>62500</v>
+        <v>59000</v>
       </c>
       <c r="P36" s="16">
         <f>SUM(P6:P35)</f>
-        <v>74000</v>
+        <v>70500</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" si="6"/>
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="R36" s="16">
         <f t="shared" si="6"/>
-        <v>48000</v>
+        <v>18500</v>
       </c>
       <c r="S36" s="15">
         <f t="shared" si="6"/>
@@ -18909,16 +19054,24 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
+      <c r="A37" s="42" t="s">
+        <v>165</v>
+      </c>
       <c r="B37" s="41"/>
       <c r="C37" s="28"/>
       <c r="D37" s="28"/>
-      <c r="E37" s="42"/>
+      <c r="E37" s="42" t="s">
+        <v>165</v>
+      </c>
       <c r="F37" s="41"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="51"/>
+      <c r="I37" s="36">
+        <v>3000</v>
+      </c>
+      <c r="J37" s="51" t="s">
+        <v>248</v>
+      </c>
       <c r="N37" s="15">
         <f>'SEPTEMBER 21'!R37:R71</f>
         <v>0</v>
@@ -18927,15 +19080,25 @@
       <c r="S37" s="3"/>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
+      <c r="A38" s="42" t="s">
+        <v>250</v>
+      </c>
       <c r="B38" s="28"/>
-      <c r="C38" s="44"/>
+      <c r="C38" s="44">
+        <v>10000</v>
+      </c>
       <c r="D38" s="28"/>
-      <c r="E38" s="42"/>
+      <c r="E38" s="42" t="s">
+        <v>250</v>
+      </c>
       <c r="F38" s="28"/>
-      <c r="G38" s="44"/>
+      <c r="G38" s="44">
+        <v>10000</v>
+      </c>
       <c r="H38" s="28"/>
-      <c r="I38" s="45"/>
+      <c r="I38" s="45">
+        <v>2000</v>
+      </c>
       <c r="J38" s="30"/>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -18947,7 +19110,10 @@
       <c r="F39" s="28"/>
       <c r="G39" s="44"/>
       <c r="H39" s="28"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="45">
+        <f>I36+I37+I38</f>
+        <v>20843</v>
+      </c>
       <c r="J39" s="30"/>
       <c r="K39" s="3"/>
       <c r="L39" s="31"/>
@@ -18968,7 +19134,9 @@
       <c r="F40" s="28"/>
       <c r="G40" s="44"/>
       <c r="H40" s="28"/>
-      <c r="I40" s="45"/>
+      <c r="I40" s="45">
+        <v>2000</v>
+      </c>
       <c r="J40" s="51"/>
       <c r="K40" s="37"/>
       <c r="L40" s="37"/>
@@ -18986,32 +19154,35 @@
       </c>
       <c r="B41" s="46">
         <f>B32+B29+B30+B31-C33</f>
-        <v>32574</v>
+        <v>30940</v>
       </c>
       <c r="C41" s="46">
         <f>SUM(C35:C40)</f>
-        <v>0</v>
+        <v>25097</v>
       </c>
       <c r="D41" s="46">
         <f>B41-C41</f>
-        <v>32574</v>
+        <v>5843</v>
       </c>
       <c r="E41" s="39" t="s">
         <v>24</v>
       </c>
       <c r="F41" s="46">
         <f>F29+F30+F32-G33</f>
-        <v>-27726</v>
+        <v>11824</v>
       </c>
       <c r="G41" s="46">
         <f>SUM(G35:G40)</f>
-        <v>0</v>
+        <v>25097</v>
       </c>
       <c r="H41" s="46">
         <f>F41-G41</f>
-        <v>-27726</v>
-      </c>
-      <c r="I41" s="45"/>
+        <v>-13273</v>
+      </c>
+      <c r="I41" s="45">
+        <f>I39-I40</f>
+        <v>18843</v>
+      </c>
       <c r="J41" s="30"/>
       <c r="K41" s="39" t="s">
         <v>13</v>
@@ -19056,20 +19227,20 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="K42" s="28" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="L42" s="40">
         <f>O36</f>
-        <v>62500</v>
+        <v>59000</v>
       </c>
       <c r="M42" s="28"/>
       <c r="N42" s="28"/>
       <c r="O42" s="28" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="P42" s="40">
         <f>Q36</f>
-        <v>26000</v>
+        <v>52000</v>
       </c>
       <c r="Q42" s="28"/>
       <c r="R42" s="28"/>
@@ -19095,8 +19266,8 @@
         <v>18</v>
       </c>
       <c r="L43" s="40">
-        <f>'NOVEMBER 21'!N55</f>
-        <v>-7592</v>
+        <f>-2000</f>
+        <v>-2000</v>
       </c>
       <c r="M43" s="28"/>
       <c r="N43" s="28"/>
@@ -19139,7 +19310,7 @@
       <c r="R45" s="28"/>
       <c r="S45" s="45">
         <f>L42</f>
-        <v>62500</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -19151,7 +19322,7 @@
       </c>
       <c r="M46" s="40">
         <f>L46*L42</f>
-        <v>6250</v>
+        <v>5900</v>
       </c>
       <c r="N46" s="28"/>
       <c r="O46" s="28" t="s">
@@ -19162,12 +19333,12 @@
       </c>
       <c r="Q46" s="40">
         <f>P46*L42</f>
-        <v>6250</v>
+        <v>5900</v>
       </c>
       <c r="R46" s="28"/>
       <c r="S46" s="45">
         <f>M46</f>
-        <v>6250</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -19191,7 +19362,7 @@
       <c r="R47" s="28"/>
       <c r="S47" s="36">
         <f>S45-S46</f>
-        <v>56250</v>
+        <v>53100</v>
       </c>
       <c r="U47">
         <f>10000-2000-2000</f>
@@ -19230,7 +19401,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="9:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:19" x14ac:dyDescent="0.25">
       <c r="K49" s="42" t="s">
         <v>144</v>
       </c>
@@ -19249,18 +19420,22 @@
       <c r="R49" s="28"/>
       <c r="S49" s="36">
         <f>S47-S48</f>
-        <v>50250</v>
-      </c>
-    </row>
-    <row r="50" spans="9:19" x14ac:dyDescent="0.25">
+        <v>47100</v>
+      </c>
+    </row>
+    <row r="50" spans="5:19" x14ac:dyDescent="0.25">
       <c r="I50" s="51"/>
-      <c r="K50" s="42"/>
+      <c r="K50" s="42" t="s">
+        <v>165</v>
+      </c>
       <c r="L50" s="28"/>
       <c r="M50" s="44">
         <v>2500</v>
       </c>
       <c r="N50" s="28"/>
-      <c r="O50" s="42"/>
+      <c r="O50" s="42" t="s">
+        <v>165</v>
+      </c>
       <c r="P50" s="28"/>
       <c r="Q50" s="44">
         <v>2500</v>
@@ -19270,34 +19445,54 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="51" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="K51" s="42"/>
+    <row r="51" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="E51" s="51">
+        <f>D41+3000</f>
+        <v>8843</v>
+      </c>
+      <c r="K51" s="42" t="s">
+        <v>245</v>
+      </c>
       <c r="L51" s="28"/>
-      <c r="M51" s="44"/>
+      <c r="M51" s="44">
+        <v>30105</v>
+      </c>
       <c r="N51" s="28"/>
-      <c r="O51" s="42"/>
+      <c r="O51" s="42" t="s">
+        <v>245</v>
+      </c>
       <c r="P51" s="28"/>
-      <c r="Q51" s="44"/>
+      <c r="Q51" s="44">
+        <v>30105</v>
+      </c>
       <c r="R51" s="28"/>
       <c r="S51" s="45">
         <f>S49-S50</f>
-        <v>48250</v>
-      </c>
-    </row>
-    <row r="52" spans="9:19" x14ac:dyDescent="0.25">
-      <c r="K52" s="42"/>
+        <v>45100</v>
+      </c>
+    </row>
+    <row r="52" spans="5:19" x14ac:dyDescent="0.25">
+      <c r="K52" s="42" t="s">
+        <v>250</v>
+      </c>
       <c r="L52" s="28"/>
-      <c r="M52" s="44"/>
+      <c r="M52" s="44">
+        <v>14995</v>
+      </c>
       <c r="N52" s="28"/>
-      <c r="O52" s="42"/>
+      <c r="O52" s="42" t="s">
+        <v>250</v>
+      </c>
       <c r="P52" s="28"/>
-      <c r="Q52" s="44"/>
+      <c r="Q52" s="44">
+        <v>14995</v>
+      </c>
       <c r="R52" s="28"/>
       <c r="S52" s="3">
         <v>30000</v>
       </c>
     </row>
-    <row r="53" spans="9:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:19" x14ac:dyDescent="0.25">
       <c r="K53" s="42"/>
       <c r="L53" s="28"/>
       <c r="M53" s="44"/>
@@ -19308,10 +19503,10 @@
       <c r="R53" s="28"/>
       <c r="S53" s="45">
         <f>S51-S52</f>
-        <v>18250</v>
-      </c>
-    </row>
-    <row r="54" spans="9:19" x14ac:dyDescent="0.25">
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="54" spans="5:19" x14ac:dyDescent="0.25">
       <c r="K54" s="42"/>
       <c r="L54" s="28"/>
       <c r="M54" s="44"/>
@@ -19322,40 +19517,40 @@
       <c r="R54" s="28"/>
       <c r="S54" s="3"/>
     </row>
-    <row r="55" spans="9:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:19" x14ac:dyDescent="0.25">
       <c r="K55" s="39" t="s">
         <v>24</v>
       </c>
       <c r="L55" s="46">
         <f>L45+L42+L43+L44-M46</f>
-        <v>48658</v>
+        <v>51100</v>
       </c>
       <c r="M55" s="46">
         <f>SUM(M48:M54)</f>
-        <v>6000</v>
+        <v>51100</v>
       </c>
       <c r="N55" s="46">
         <f>L55-M55</f>
-        <v>42658</v>
+        <v>0</v>
       </c>
       <c r="O55" s="39" t="s">
         <v>24</v>
       </c>
       <c r="P55" s="46">
         <f>P42+P43+P45-Q46</f>
-        <v>3658</v>
+        <v>30008</v>
       </c>
       <c r="Q55" s="46">
         <f>SUM(Q48:Q54)</f>
-        <v>6000</v>
+        <v>51100</v>
       </c>
       <c r="R55" s="46">
         <f>P55-Q55</f>
-        <v>-2342</v>
+        <v>-21092</v>
       </c>
       <c r="S55" s="45"/>
     </row>
-    <row r="56" spans="9:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:19" x14ac:dyDescent="0.25">
       <c r="K56" s="47" t="s">
         <v>25</v>
       </c>
